--- a/Mifos Automation Excels/Client/4450-ACTCTR-MEET-WEEKLYonFRI-SUBMITJLG-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-Disburse-Modifymeeting-toWednesday.xlsx
+++ b/Mifos Automation Excels/Client/4450-ACTCTR-MEET-WEEKLYonFRI-SUBMITJLG-SYNK-DISP+REPAYwithMEE-Weeklyloanevery1weeks-Disburse-Modifymeeting-toWednesday.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>submittedon</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -296,7 +293,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -324,6 +321,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -345,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -368,41 +370,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -442,13 +414,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -852,7 +825,7 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -863,7 +836,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -907,7 +880,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -935,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -988,7 +961,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1044,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="14">
         <v>12</v>
@@ -1143,7 +1116,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1246,7 @@
       <c r="E2" s="19">
         <v>10000</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="22">
         <v>2474.14</v>
       </c>
     </row>
@@ -1346,70 +1319,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="O1" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="22" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
-      <c r="C2" s="23">
+      <c r="C2" s="21">
         <v>42069</v>
       </c>
       <c r="D2" s="20"/>
@@ -1442,7 +1412,7 @@
       <c r="B3" s="20">
         <v>7</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>42076</v>
       </c>
       <c r="D3" s="20"/>
@@ -1450,7 +1420,7 @@
       <c r="F3" s="20">
         <v>822.81</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="22">
         <v>9177.19</v>
       </c>
       <c r="H3" s="20">
@@ -1468,13 +1438,14 @@
       <c r="L3" s="20">
         <v>0</v>
       </c>
-      <c r="M3" s="20">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20">
+        <v>0</v>
+      </c>
       <c r="O3" s="20">
         <v>0</v>
       </c>
+      <c r="P3" s="20"/>
       <c r="Q3" s="20">
         <v>845.89</v>
       </c>
@@ -1486,7 +1457,7 @@
       <c r="B4" s="20">
         <v>7</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>42083</v>
       </c>
       <c r="D4" s="20"/>
@@ -1494,7 +1465,7 @@
       <c r="F4" s="20">
         <v>824.71</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="22">
         <v>8352.48</v>
       </c>
       <c r="H4" s="20">
@@ -1512,13 +1483,14 @@
       <c r="L4" s="20">
         <v>0</v>
       </c>
-      <c r="M4" s="20">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20">
+        <v>0</v>
+      </c>
       <c r="O4" s="20">
         <v>0</v>
       </c>
+      <c r="P4" s="20"/>
       <c r="Q4" s="20">
         <v>845.89</v>
       </c>
@@ -1530,7 +1502,7 @@
       <c r="B5" s="20">
         <v>7</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>42090</v>
       </c>
       <c r="D5" s="20"/>
@@ -1538,7 +1510,7 @@
       <c r="F5" s="20">
         <v>826.62</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="22">
         <v>7525.86</v>
       </c>
       <c r="H5" s="20">
@@ -1556,13 +1528,14 @@
       <c r="L5" s="20">
         <v>0</v>
       </c>
-      <c r="M5" s="20">
-        <v>0</v>
-      </c>
-      <c r="N5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20">
+        <v>0</v>
+      </c>
       <c r="O5" s="20">
         <v>0</v>
       </c>
+      <c r="P5" s="20"/>
       <c r="Q5" s="20">
         <v>845.89</v>
       </c>
@@ -1572,17 +1545,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="20">
-        <v>12</v>
-      </c>
-      <c r="C6" s="23">
-        <v>42102</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="21">
+        <v>42097</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20">
         <v>828.52</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="22">
         <v>6697.34</v>
       </c>
       <c r="H6" s="20">
@@ -1600,13 +1573,14 @@
       <c r="L6" s="20">
         <v>0</v>
       </c>
-      <c r="M6" s="20">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20">
+        <v>0</v>
+      </c>
       <c r="O6" s="20">
         <v>0</v>
       </c>
+      <c r="P6" s="20"/>
       <c r="Q6" s="20">
         <v>845.89</v>
       </c>
@@ -1618,15 +1592,15 @@
       <c r="B7" s="20">
         <v>7</v>
       </c>
-      <c r="C7" s="23">
-        <v>42109</v>
+      <c r="C7" s="21">
+        <v>42104</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20">
         <v>830.43</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="22">
         <v>5866.91</v>
       </c>
       <c r="H7" s="20">
@@ -1644,13 +1618,14 @@
       <c r="L7" s="20">
         <v>0</v>
       </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
       <c r="O7" s="20">
         <v>0</v>
       </c>
+      <c r="P7" s="20"/>
       <c r="Q7" s="20">
         <v>845.89</v>
       </c>
@@ -1662,15 +1637,15 @@
       <c r="B8" s="20">
         <v>7</v>
       </c>
-      <c r="C8" s="23">
-        <v>42116</v>
+      <c r="C8" s="21">
+        <v>42111</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20">
         <v>832.35</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="22">
         <v>5034.5600000000004</v>
       </c>
       <c r="H8" s="20">
@@ -1688,13 +1663,14 @@
       <c r="L8" s="20">
         <v>0</v>
       </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20">
+        <v>0</v>
+      </c>
       <c r="O8" s="20">
         <v>0</v>
       </c>
+      <c r="P8" s="20"/>
       <c r="Q8" s="20">
         <v>845.89</v>
       </c>
@@ -1706,15 +1682,15 @@
       <c r="B9" s="20">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
-        <v>42123</v>
+      <c r="C9" s="21">
+        <v>42118</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20">
         <v>834.27</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <v>4200.29</v>
       </c>
       <c r="H9" s="20">
@@ -1732,13 +1708,14 @@
       <c r="L9" s="20">
         <v>0</v>
       </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
       <c r="O9" s="20">
         <v>0</v>
       </c>
+      <c r="P9" s="20"/>
       <c r="Q9" s="20">
         <v>845.89</v>
       </c>
@@ -1750,15 +1727,15 @@
       <c r="B10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" s="23">
-        <v>42130</v>
+      <c r="C10" s="21">
+        <v>42125</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20">
         <v>836.2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <v>3364.09</v>
       </c>
       <c r="H10" s="20">
@@ -1776,13 +1753,14 @@
       <c r="L10" s="20">
         <v>0</v>
       </c>
-      <c r="M10" s="20">
-        <v>0</v>
-      </c>
-      <c r="N10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20">
+        <v>0</v>
+      </c>
       <c r="O10" s="20">
         <v>0</v>
       </c>
+      <c r="P10" s="20"/>
       <c r="Q10" s="20">
         <v>845.89</v>
       </c>
@@ -1794,15 +1772,15 @@
       <c r="B11" s="20">
         <v>7</v>
       </c>
-      <c r="C11" s="23">
-        <v>42137</v>
+      <c r="C11" s="21">
+        <v>42132</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20">
         <v>838.13</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <v>2525.96</v>
       </c>
       <c r="H11" s="20">
@@ -1820,13 +1798,14 @@
       <c r="L11" s="20">
         <v>0</v>
       </c>
-      <c r="M11" s="20">
-        <v>0</v>
-      </c>
-      <c r="N11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20">
+        <v>0</v>
+      </c>
       <c r="O11" s="20">
         <v>0</v>
       </c>
+      <c r="P11" s="20"/>
       <c r="Q11" s="20">
         <v>845.89</v>
       </c>
@@ -1838,15 +1817,15 @@
       <c r="B12" s="20">
         <v>7</v>
       </c>
-      <c r="C12" s="23">
-        <v>42144</v>
+      <c r="C12" s="21">
+        <v>42139</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20">
         <v>840.06</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <v>1685.9</v>
       </c>
       <c r="H12" s="20">
@@ -1864,13 +1843,14 @@
       <c r="L12" s="20">
         <v>0</v>
       </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
       <c r="O12" s="20">
         <v>0</v>
       </c>
+      <c r="P12" s="20"/>
       <c r="Q12" s="20">
         <v>845.89</v>
       </c>
@@ -1882,8 +1862,8 @@
       <c r="B13" s="20">
         <v>7</v>
       </c>
-      <c r="C13" s="23">
-        <v>42151</v>
+      <c r="C13" s="21">
+        <v>42146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -1908,13 +1888,14 @@
       <c r="L13" s="20">
         <v>0</v>
       </c>
-      <c r="M13" s="20">
-        <v>0</v>
-      </c>
-      <c r="N13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20">
+        <v>0</v>
+      </c>
       <c r="O13" s="20">
         <v>0</v>
       </c>
+      <c r="P13" s="20"/>
       <c r="Q13" s="20">
         <v>845.89</v>
       </c>
@@ -1926,8 +1907,8 @@
       <c r="B14" s="20">
         <v>7</v>
       </c>
-      <c r="C14" s="23">
-        <v>42158</v>
+      <c r="C14" s="21">
+        <v>42153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -1952,13 +1933,14 @@
       <c r="L14" s="20">
         <v>0</v>
       </c>
-      <c r="M14" s="20">
-        <v>0</v>
-      </c>
-      <c r="N14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
       <c r="O14" s="20">
         <v>0</v>
       </c>
+      <c r="P14" s="20"/>
       <c r="Q14" s="20">
         <v>845.85</v>
       </c>
@@ -1980,34 +1962,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
@@ -2015,13 +1997,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="21">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="23">
-        <v>42005</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="E2" s="19">
         <v>10000</v>
@@ -2051,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2063,7 +2045,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>23</v>
@@ -2071,7 +2053,7 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -2079,10 +2061,10 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
